--- a/Planeamento/Estudo de viabilidade e complexidade.xlsx
+++ b/Planeamento/Estudo de viabilidade e complexidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Desktop\LAPR5\Projeto\Planeamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscojosemoreiratavares/lapr5-g025/Planeamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0391E582-7018-43A9-A463-A6D82891D37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E2D17B-F5E7-BE47-AD61-E778FA6EF302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF97DD9D-8578-4078-B9E8-2F50CEA2BE38}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{EF97DD9D-8578-4078-B9E8-2F50CEA2BE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Nº linhas</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>ERRO</t>
+  </si>
+  <si>
+    <t>x^n</t>
   </si>
 </sst>
 </file>
@@ -210,19 +213,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,23 +541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC06A50-6BCD-4D6E-8E21-14653855263B}">
-  <dimension ref="C4:H25"/>
+  <dimension ref="C4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -574,14 +577,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
         <v>16</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3">
@@ -594,14 +597,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="6">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="11">
         <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="3">
         <v>6974</v>
       </c>
@@ -612,12 +615,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="11"/>
       <c r="D7" s="3">
         <v>12</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3">
         <v>10313</v>
       </c>
@@ -628,12 +631,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="11"/>
       <c r="D8" s="3">
         <v>13</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="3">
         <v>31939</v>
       </c>
@@ -644,12 +647,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="11"/>
       <c r="D9" s="3">
         <v>14</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="3">
         <v>174056</v>
       </c>
@@ -660,28 +663,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="11"/>
       <c r="D10" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="11"/>
       <c r="D11" s="3">
         <v>16</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
@@ -692,14 +695,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>16</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
@@ -710,37 +713,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="3:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -748,12 +751,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
@@ -763,7 +766,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -771,7 +774,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -779,9 +782,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
